--- a/MHE thingy/V3.0_PD/Tuning parameters.xlsx
+++ b/MHE thingy/V3.0_PD/Tuning parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ornul\Desktop\Kyb master\Maglev\Martin code\V2x_PD_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ornul\Desktop\Kyb master\Maglev\MHE thingy\V3.0_PD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38077BC9-BC1A-4F94-B48E-91980F5A22D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8DC547-947A-43B6-A722-57E835D9BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
